--- a/PRIXSWS.xlsx
+++ b/PRIXSWS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD03A865-6A55-4C6E-9069-9FB48AE9F653}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -132,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,11 +460,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +499,9 @@
       <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>174</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -510,7 +513,9 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>174</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -872,7 +877,9 @@
       <c r="C29" s="1">
         <v>12</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1">
+        <v>106</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
